--- a/Networks/Parte4/tests.xlsx
+++ b/Networks/Parte4/tests.xlsx
@@ -14,30 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>l0_neurons</t>
-  </si>
-  <si>
-    <t>test_acc</t>
-  </si>
-  <si>
-    <t>avgtest_f1</t>
-  </si>
-  <si>
-    <t>test_f1_C1</t>
-  </si>
-  <si>
-    <t>test_f1_C2</t>
-  </si>
-  <si>
-    <t>test_f1_C3</t>
-  </si>
-  <si>
-    <t>test_f1_C4</t>
-  </si>
-  <si>
-    <t>test_f1_C5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>hidden_layers</t>
+  </si>
+  <si>
+    <t>test_mse</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>16-16</t>
+  </si>
+  <si>
+    <t>32-32</t>
+  </si>
+  <si>
+    <t>64</t>
   </si>
 </sst>
 </file>
@@ -395,36 +392,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2">
+        <v>1581228.9008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C3">
+        <v>11243.79577348066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C4">
+        <v>1581228.9008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C5">
+        <v>1581228.9008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
+      <c r="C6">
+        <v>6680.943547903616</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte4/tests.xlsx
+++ b/Networks/Parte4/tests.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>hidden_layers</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>64</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>256</t>
   </si>
 </sst>
 </file>
@@ -392,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,7 +420,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1581228.9008</v>
+        <v>19664.52435540803</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -425,7 +431,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>11243.79577348066</v>
+        <v>10034.95746813158</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -458,7 +464,29 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>6680.943547903616</v>
+        <v>6254.869721387138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>4726.657844981376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>3871.513676797062</v>
       </c>
     </row>
   </sheetData>
